--- a/Econometrics/data/final data.xlsx
+++ b/Econometrics/data/final data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wkdrn\OneDrive\문서\R-Quant\Econometrics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E745C77C-7739-4E12-B58D-671AA68CBBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CA3BBD-9AED-40FD-9209-A0EB204AD57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="900" windowWidth="19665" windowHeight="19260" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="900" windowWidth="19665" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="code_0" sheetId="1" r:id="rId1"/>
-    <sheet name="code_1" sheetId="3" r:id="rId2"/>
-    <sheet name="information" sheetId="2" r:id="rId3"/>
+    <sheet name="information" sheetId="2" r:id="rId2"/>
+    <sheet name="code_1" sheetId="3" r:id="rId3"/>
     <sheet name="code_2" sheetId="5" r:id="rId4"/>
     <sheet name="code_3" sheetId="4" r:id="rId5"/>
     <sheet name="code_4" sheetId="6" r:id="rId6"/>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" activeCellId="1" sqref="C1:C1048576 D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3942,7 +3942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B472A0AA-B775-458E-A1CF-DC8453B5DACA}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -5608,1675 +5608,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE27487F-C65E-40B6-A221-FAE3C7CF18EB}">
-  <dimension ref="A1:I57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4625</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>39</v>
-      </c>
-      <c r="F5">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>168</v>
-      </c>
-      <c r="H5">
-        <v>0.5</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>5953</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>49</v>
-      </c>
-      <c r="F7">
-        <v>19</v>
-      </c>
-      <c r="G7">
-        <v>152</v>
-      </c>
-      <c r="H7">
-        <v>18.5</v>
-      </c>
-      <c r="I7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>16155</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>52.9</v>
-      </c>
-      <c r="F8">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="G8">
-        <v>158.4</v>
-      </c>
-      <c r="H8">
-        <v>21.3</v>
-      </c>
-      <c r="I8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>6087</v>
-      </c>
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>46</v>
-      </c>
-      <c r="F14">
-        <v>19</v>
-      </c>
-      <c r="G14">
-        <v>172</v>
-      </c>
-      <c r="H14">
-        <v>7.4</v>
-      </c>
-      <c r="I14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16">
-        <v>12</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2641</v>
-      </c>
-      <c r="C17">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>27.7</v>
-      </c>
-      <c r="F17">
-        <v>22.3</v>
-      </c>
-      <c r="G17">
-        <v>197.3</v>
-      </c>
-      <c r="H17">
-        <v>1.6</v>
-      </c>
-      <c r="I17">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>4154</v>
-      </c>
-      <c r="C18">
-        <v>12</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>31.9</v>
-      </c>
-      <c r="F18">
-        <v>19.3</v>
-      </c>
-      <c r="G18">
-        <v>157.19999999999999</v>
-      </c>
-      <c r="H18">
-        <v>5.9</v>
-      </c>
-      <c r="I18">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>6367</v>
-      </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>38.1</v>
-      </c>
-      <c r="F19">
-        <v>21.8</v>
-      </c>
-      <c r="G19">
-        <v>176.8</v>
-      </c>
-      <c r="H19">
-        <v>8.6</v>
-      </c>
-      <c r="I19">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>6212</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>42.6</v>
-      </c>
-      <c r="F20">
-        <v>21.1</v>
-      </c>
-      <c r="G20">
-        <v>178</v>
-      </c>
-      <c r="H20">
-        <v>9.6</v>
-      </c>
-      <c r="I20">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>7715</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>47.2</v>
-      </c>
-      <c r="F21">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="G21">
-        <v>163.6</v>
-      </c>
-      <c r="H21">
-        <v>12.7</v>
-      </c>
-      <c r="I21">
-        <v>2423</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>8312</v>
-      </c>
-      <c r="C22">
-        <v>12</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>52.4</v>
-      </c>
-      <c r="F22">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="G22">
-        <v>167.1</v>
-      </c>
-      <c r="H22">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="I22">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23">
-        <v>12</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>2300</v>
-      </c>
-      <c r="C24">
-        <v>12</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>29</v>
-      </c>
-      <c r="F24">
-        <v>20</v>
-      </c>
-      <c r="G24">
-        <v>160</v>
-      </c>
-      <c r="H24">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>2580</v>
-      </c>
-      <c r="C25">
-        <v>12</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>31.2</v>
-      </c>
-      <c r="F25">
-        <v>20.8</v>
-      </c>
-      <c r="G25">
-        <v>154.69999999999999</v>
-      </c>
-      <c r="H25">
-        <v>8.1</v>
-      </c>
-      <c r="I25">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>6701</v>
-      </c>
-      <c r="C26">
-        <v>12</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>37.9</v>
-      </c>
-      <c r="F26">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="G26">
-        <v>150.30000000000001</v>
-      </c>
-      <c r="H26">
-        <v>12.6</v>
-      </c>
-      <c r="I26">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>6306</v>
-      </c>
-      <c r="C27">
-        <v>12</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>41.6</v>
-      </c>
-      <c r="F27">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="G27">
-        <v>160.1</v>
-      </c>
-      <c r="H27">
-        <v>11.2</v>
-      </c>
-      <c r="I27">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>7009</v>
-      </c>
-      <c r="C28">
-        <v>12</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>47.3</v>
-      </c>
-      <c r="F28">
-        <v>19.5</v>
-      </c>
-      <c r="G28">
-        <v>157.6</v>
-      </c>
-      <c r="H28">
-        <v>16.2</v>
-      </c>
-      <c r="I28">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>8144</v>
-      </c>
-      <c r="C29">
-        <v>12</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>51.8</v>
-      </c>
-      <c r="F29">
-        <v>19</v>
-      </c>
-      <c r="G29">
-        <v>152.5</v>
-      </c>
-      <c r="H29">
-        <v>18.2</v>
-      </c>
-      <c r="I29">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30">
-        <v>14</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>3872</v>
-      </c>
-      <c r="C31">
-        <v>14</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>27.2</v>
-      </c>
-      <c r="F31">
-        <v>24.6</v>
-      </c>
-      <c r="G31">
-        <v>200.7</v>
-      </c>
-      <c r="H31">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I31">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>3215</v>
-      </c>
-      <c r="C32">
-        <v>14</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>32.4</v>
-      </c>
-      <c r="F32">
-        <v>21.4</v>
-      </c>
-      <c r="G32">
-        <v>170.6</v>
-      </c>
-      <c r="H32">
-        <v>3.7</v>
-      </c>
-      <c r="I32">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>5310</v>
-      </c>
-      <c r="C33">
-        <v>14</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="F33">
-        <v>19.8</v>
-      </c>
-      <c r="G33">
-        <v>166.8</v>
-      </c>
-      <c r="H33">
-        <v>7.8</v>
-      </c>
-      <c r="I33">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>6170</v>
-      </c>
-      <c r="C34">
-        <v>14</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>42.2</v>
-      </c>
-      <c r="F34">
-        <v>20.8</v>
-      </c>
-      <c r="G34">
-        <v>171.5</v>
-      </c>
-      <c r="H34">
-        <v>10.8</v>
-      </c>
-      <c r="I34">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>7484</v>
-      </c>
-      <c r="C35">
-        <v>14</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>47.1</v>
-      </c>
-      <c r="F35">
-        <v>20</v>
-      </c>
-      <c r="G35">
-        <v>167.1</v>
-      </c>
-      <c r="H35">
-        <v>14.8</v>
-      </c>
-      <c r="I35">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>8318</v>
-      </c>
-      <c r="C36">
-        <v>14</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>52.1</v>
-      </c>
-      <c r="F36">
-        <v>19.8</v>
-      </c>
-      <c r="G36">
-        <v>164.1</v>
-      </c>
-      <c r="H36">
-        <v>14.2</v>
-      </c>
-      <c r="I36">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>2678</v>
-      </c>
-      <c r="C37">
-        <v>14</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>24</v>
-      </c>
-      <c r="F37">
-        <v>19</v>
-      </c>
-      <c r="G37">
-        <v>152</v>
-      </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-      <c r="I37">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>3535</v>
-      </c>
-      <c r="C38">
-        <v>14</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>28.3</v>
-      </c>
-      <c r="F38">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="G38">
-        <v>156</v>
-      </c>
-      <c r="H38">
-        <v>3.4</v>
-      </c>
-      <c r="I38">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>5348</v>
-      </c>
-      <c r="C39">
-        <v>14</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>34</v>
-      </c>
-      <c r="F39">
-        <v>19</v>
-      </c>
-      <c r="G39">
-        <v>154.5</v>
-      </c>
-      <c r="H39">
-        <v>7.1</v>
-      </c>
-      <c r="I39">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>4611</v>
-      </c>
-      <c r="C40">
-        <v>14</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>37.5</v>
-      </c>
-      <c r="F40">
-        <v>19</v>
-      </c>
-      <c r="G40">
-        <v>161.1</v>
-      </c>
-      <c r="H40">
-        <v>7</v>
-      </c>
-      <c r="I40">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>4905</v>
-      </c>
-      <c r="C41">
-        <v>14</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>42.6</v>
-      </c>
-      <c r="F41">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="G41">
-        <v>171.1</v>
-      </c>
-      <c r="H41">
-        <v>8.5</v>
-      </c>
-      <c r="I41">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>4871</v>
-      </c>
-      <c r="C42">
-        <v>14</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>47</v>
-      </c>
-      <c r="F42">
-        <v>19.2</v>
-      </c>
-      <c r="G42">
-        <v>150.9</v>
-      </c>
-      <c r="H42">
-        <v>11.1</v>
-      </c>
-      <c r="I42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>6467</v>
-      </c>
-      <c r="C43">
-        <v>14</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>51.5</v>
-      </c>
-      <c r="F43">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="G43">
-        <v>162</v>
-      </c>
-      <c r="H43">
-        <v>13.5</v>
-      </c>
-      <c r="I43">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>2150</v>
-      </c>
-      <c r="C44">
-        <v>16</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>24</v>
-      </c>
-      <c r="F44">
-        <v>20</v>
-      </c>
-      <c r="G44">
-        <v>160</v>
-      </c>
-      <c r="H44">
-        <v>0.8</v>
-      </c>
-      <c r="I44">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>5971</v>
-      </c>
-      <c r="C45">
-        <v>16</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>27.4</v>
-      </c>
-      <c r="F45">
-        <v>19.3</v>
-      </c>
-      <c r="G45">
-        <v>158.19999999999999</v>
-      </c>
-      <c r="H45">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I45">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>5815</v>
-      </c>
-      <c r="C46">
-        <v>16</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>32.1</v>
-      </c>
-      <c r="F46">
-        <v>19.2</v>
-      </c>
-      <c r="G46">
-        <v>157.30000000000001</v>
-      </c>
-      <c r="H46">
-        <v>5.2</v>
-      </c>
-      <c r="I46">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>7793</v>
-      </c>
-      <c r="C47">
-        <v>16</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="F47">
-        <v>19.2</v>
-      </c>
-      <c r="G47">
-        <v>157.4</v>
-      </c>
-      <c r="H47">
-        <v>7.2</v>
-      </c>
-      <c r="I47">
-        <v>2775</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>9127</v>
-      </c>
-      <c r="C48">
-        <v>16</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>42.4</v>
-      </c>
-      <c r="F48">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="G48">
-        <v>159.80000000000001</v>
-      </c>
-      <c r="H48">
-        <v>10.1</v>
-      </c>
-      <c r="I48">
-        <v>7994</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>9783</v>
-      </c>
-      <c r="C49">
-        <v>16</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>47.3</v>
-      </c>
-      <c r="F49">
-        <v>19.3</v>
-      </c>
-      <c r="G49">
-        <v>157.80000000000001</v>
-      </c>
-      <c r="H49">
-        <v>13.8</v>
-      </c>
-      <c r="I49">
-        <v>18271</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>10939</v>
-      </c>
-      <c r="C50">
-        <v>16</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>52</v>
-      </c>
-      <c r="F50">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="G50">
-        <v>157.9</v>
-      </c>
-      <c r="H50">
-        <v>17</v>
-      </c>
-      <c r="I50">
-        <v>24496</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>3694</v>
-      </c>
-      <c r="C51">
-        <v>16</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>24</v>
-      </c>
-      <c r="F51">
-        <v>19</v>
-      </c>
-      <c r="G51">
-        <v>148.4</v>
-      </c>
-      <c r="H51">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I51">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>4170</v>
-      </c>
-      <c r="C52">
-        <v>16</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>27.2</v>
-      </c>
-      <c r="F52">
-        <v>19.3</v>
-      </c>
-      <c r="G52">
-        <v>161.6</v>
-      </c>
-      <c r="H52">
-        <v>2.5</v>
-      </c>
-      <c r="I52">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>5581</v>
-      </c>
-      <c r="C53">
-        <v>16</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>32.6</v>
-      </c>
-      <c r="F53">
-        <v>19.2</v>
-      </c>
-      <c r="G53">
-        <v>155.30000000000001</v>
-      </c>
-      <c r="H53">
-        <v>5.9</v>
-      </c>
-      <c r="I53">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>6388</v>
-      </c>
-      <c r="C54">
-        <v>16</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>37.4</v>
-      </c>
-      <c r="F54">
-        <v>19.5</v>
-      </c>
-      <c r="G54">
-        <v>155.19999999999999</v>
-      </c>
-      <c r="H54">
-        <v>8.9</v>
-      </c>
-      <c r="I54">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>8840</v>
-      </c>
-      <c r="C55">
-        <v>16</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>42.1</v>
-      </c>
-      <c r="F55">
-        <v>19.2</v>
-      </c>
-      <c r="G55">
-        <v>156.9</v>
-      </c>
-      <c r="H55">
-        <v>9.9</v>
-      </c>
-      <c r="I55">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>8830</v>
-      </c>
-      <c r="C56">
-        <v>16</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>46.9</v>
-      </c>
-      <c r="F56">
-        <v>19.3</v>
-      </c>
-      <c r="G56">
-        <v>155</v>
-      </c>
-      <c r="H56">
-        <v>11.4</v>
-      </c>
-      <c r="I56">
-        <v>2354</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>8386</v>
-      </c>
-      <c r="C57">
-        <v>16</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>52</v>
-      </c>
-      <c r="F57">
-        <v>19.5</v>
-      </c>
-      <c r="G57">
-        <v>159.80000000000001</v>
-      </c>
-      <c r="H57">
-        <v>14.6</v>
-      </c>
-      <c r="I57">
-        <v>1485</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FADABD-80AF-47F5-90F4-008A8E8C141E}">
   <dimension ref="A1:E53"/>
   <sheetViews>
@@ -7646,6 +5977,1675 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE27487F-C65E-40B6-A221-FAE3C7CF18EB}">
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4625</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>168</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5953</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>49</v>
+      </c>
+      <c r="F7">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>152</v>
+      </c>
+      <c r="H7">
+        <v>18.5</v>
+      </c>
+      <c r="I7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>16155</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>52.9</v>
+      </c>
+      <c r="F8">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G8">
+        <v>158.4</v>
+      </c>
+      <c r="H8">
+        <v>21.3</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6087</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>46</v>
+      </c>
+      <c r="F14">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>172</v>
+      </c>
+      <c r="H14">
+        <v>7.4</v>
+      </c>
+      <c r="I14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2641</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>27.7</v>
+      </c>
+      <c r="F17">
+        <v>22.3</v>
+      </c>
+      <c r="G17">
+        <v>197.3</v>
+      </c>
+      <c r="H17">
+        <v>1.6</v>
+      </c>
+      <c r="I17">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4154</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>31.9</v>
+      </c>
+      <c r="F18">
+        <v>19.3</v>
+      </c>
+      <c r="G18">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="H18">
+        <v>5.9</v>
+      </c>
+      <c r="I18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6367</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>38.1</v>
+      </c>
+      <c r="F19">
+        <v>21.8</v>
+      </c>
+      <c r="G19">
+        <v>176.8</v>
+      </c>
+      <c r="H19">
+        <v>8.6</v>
+      </c>
+      <c r="I19">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6212</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>42.6</v>
+      </c>
+      <c r="F20">
+        <v>21.1</v>
+      </c>
+      <c r="G20">
+        <v>178</v>
+      </c>
+      <c r="H20">
+        <v>9.6</v>
+      </c>
+      <c r="I20">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7715</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>47.2</v>
+      </c>
+      <c r="F21">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G21">
+        <v>163.6</v>
+      </c>
+      <c r="H21">
+        <v>12.7</v>
+      </c>
+      <c r="I21">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>8312</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>52.4</v>
+      </c>
+      <c r="F22">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G22">
+        <v>167.1</v>
+      </c>
+      <c r="H22">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I22">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2300</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>29</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>160</v>
+      </c>
+      <c r="H24">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2580</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>31.2</v>
+      </c>
+      <c r="F25">
+        <v>20.8</v>
+      </c>
+      <c r="G25">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="H25">
+        <v>8.1</v>
+      </c>
+      <c r="I25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>6701</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>37.9</v>
+      </c>
+      <c r="F26">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G26">
+        <v>150.30000000000001</v>
+      </c>
+      <c r="H26">
+        <v>12.6</v>
+      </c>
+      <c r="I26">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6306</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>41.6</v>
+      </c>
+      <c r="F27">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G27">
+        <v>160.1</v>
+      </c>
+      <c r="H27">
+        <v>11.2</v>
+      </c>
+      <c r="I27">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7009</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>47.3</v>
+      </c>
+      <c r="F28">
+        <v>19.5</v>
+      </c>
+      <c r="G28">
+        <v>157.6</v>
+      </c>
+      <c r="H28">
+        <v>16.2</v>
+      </c>
+      <c r="I28">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>8144</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>51.8</v>
+      </c>
+      <c r="F29">
+        <v>19</v>
+      </c>
+      <c r="G29">
+        <v>152.5</v>
+      </c>
+      <c r="H29">
+        <v>18.2</v>
+      </c>
+      <c r="I29">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3872</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>27.2</v>
+      </c>
+      <c r="F31">
+        <v>24.6</v>
+      </c>
+      <c r="G31">
+        <v>200.7</v>
+      </c>
+      <c r="H31">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I31">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>3215</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>32.4</v>
+      </c>
+      <c r="F32">
+        <v>21.4</v>
+      </c>
+      <c r="G32">
+        <v>170.6</v>
+      </c>
+      <c r="H32">
+        <v>3.7</v>
+      </c>
+      <c r="I32">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>5310</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="F33">
+        <v>19.8</v>
+      </c>
+      <c r="G33">
+        <v>166.8</v>
+      </c>
+      <c r="H33">
+        <v>7.8</v>
+      </c>
+      <c r="I33">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>6170</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>42.2</v>
+      </c>
+      <c r="F34">
+        <v>20.8</v>
+      </c>
+      <c r="G34">
+        <v>171.5</v>
+      </c>
+      <c r="H34">
+        <v>10.8</v>
+      </c>
+      <c r="I34">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7484</v>
+      </c>
+      <c r="C35">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>47.1</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <v>167.1</v>
+      </c>
+      <c r="H35">
+        <v>14.8</v>
+      </c>
+      <c r="I35">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>8318</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>52.1</v>
+      </c>
+      <c r="F36">
+        <v>19.8</v>
+      </c>
+      <c r="G36">
+        <v>164.1</v>
+      </c>
+      <c r="H36">
+        <v>14.2</v>
+      </c>
+      <c r="I36">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2678</v>
+      </c>
+      <c r="C37">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>24</v>
+      </c>
+      <c r="F37">
+        <v>19</v>
+      </c>
+      <c r="G37">
+        <v>152</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>3535</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>28.3</v>
+      </c>
+      <c r="F38">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G38">
+        <v>156</v>
+      </c>
+      <c r="H38">
+        <v>3.4</v>
+      </c>
+      <c r="I38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>5348</v>
+      </c>
+      <c r="C39">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>34</v>
+      </c>
+      <c r="F39">
+        <v>19</v>
+      </c>
+      <c r="G39">
+        <v>154.5</v>
+      </c>
+      <c r="H39">
+        <v>7.1</v>
+      </c>
+      <c r="I39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>4611</v>
+      </c>
+      <c r="C40">
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>37.5</v>
+      </c>
+      <c r="F40">
+        <v>19</v>
+      </c>
+      <c r="G40">
+        <v>161.1</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+      <c r="I40">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>4905</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>42.6</v>
+      </c>
+      <c r="F41">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G41">
+        <v>171.1</v>
+      </c>
+      <c r="H41">
+        <v>8.5</v>
+      </c>
+      <c r="I41">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>4871</v>
+      </c>
+      <c r="C42">
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>47</v>
+      </c>
+      <c r="F42">
+        <v>19.2</v>
+      </c>
+      <c r="G42">
+        <v>150.9</v>
+      </c>
+      <c r="H42">
+        <v>11.1</v>
+      </c>
+      <c r="I42">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>6467</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>51.5</v>
+      </c>
+      <c r="F43">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G43">
+        <v>162</v>
+      </c>
+      <c r="H43">
+        <v>13.5</v>
+      </c>
+      <c r="I43">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>2150</v>
+      </c>
+      <c r="C44">
+        <v>16</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>24</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+      <c r="G44">
+        <v>160</v>
+      </c>
+      <c r="H44">
+        <v>0.8</v>
+      </c>
+      <c r="I44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>5971</v>
+      </c>
+      <c r="C45">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>27.4</v>
+      </c>
+      <c r="F45">
+        <v>19.3</v>
+      </c>
+      <c r="G45">
+        <v>158.19999999999999</v>
+      </c>
+      <c r="H45">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I45">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5815</v>
+      </c>
+      <c r="C46">
+        <v>16</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>32.1</v>
+      </c>
+      <c r="F46">
+        <v>19.2</v>
+      </c>
+      <c r="G46">
+        <v>157.30000000000001</v>
+      </c>
+      <c r="H46">
+        <v>5.2</v>
+      </c>
+      <c r="I46">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7793</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="F47">
+        <v>19.2</v>
+      </c>
+      <c r="G47">
+        <v>157.4</v>
+      </c>
+      <c r="H47">
+        <v>7.2</v>
+      </c>
+      <c r="I47">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>9127</v>
+      </c>
+      <c r="C48">
+        <v>16</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>42.4</v>
+      </c>
+      <c r="F48">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G48">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="H48">
+        <v>10.1</v>
+      </c>
+      <c r="I48">
+        <v>7994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>9783</v>
+      </c>
+      <c r="C49">
+        <v>16</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>47.3</v>
+      </c>
+      <c r="F49">
+        <v>19.3</v>
+      </c>
+      <c r="G49">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="H49">
+        <v>13.8</v>
+      </c>
+      <c r="I49">
+        <v>18271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>10939</v>
+      </c>
+      <c r="C50">
+        <v>16</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>52</v>
+      </c>
+      <c r="F50">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G50">
+        <v>157.9</v>
+      </c>
+      <c r="H50">
+        <v>17</v>
+      </c>
+      <c r="I50">
+        <v>24496</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>3694</v>
+      </c>
+      <c r="C51">
+        <v>16</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>24</v>
+      </c>
+      <c r="F51">
+        <v>19</v>
+      </c>
+      <c r="G51">
+        <v>148.4</v>
+      </c>
+      <c r="H51">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I51">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>4170</v>
+      </c>
+      <c r="C52">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>27.2</v>
+      </c>
+      <c r="F52">
+        <v>19.3</v>
+      </c>
+      <c r="G52">
+        <v>161.6</v>
+      </c>
+      <c r="H52">
+        <v>2.5</v>
+      </c>
+      <c r="I52">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>5581</v>
+      </c>
+      <c r="C53">
+        <v>16</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>32.6</v>
+      </c>
+      <c r="F53">
+        <v>19.2</v>
+      </c>
+      <c r="G53">
+        <v>155.30000000000001</v>
+      </c>
+      <c r="H53">
+        <v>5.9</v>
+      </c>
+      <c r="I53">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>6388</v>
+      </c>
+      <c r="C54">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>37.4</v>
+      </c>
+      <c r="F54">
+        <v>19.5</v>
+      </c>
+      <c r="G54">
+        <v>155.19999999999999</v>
+      </c>
+      <c r="H54">
+        <v>8.9</v>
+      </c>
+      <c r="I54">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>8840</v>
+      </c>
+      <c r="C55">
+        <v>16</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>42.1</v>
+      </c>
+      <c r="F55">
+        <v>19.2</v>
+      </c>
+      <c r="G55">
+        <v>156.9</v>
+      </c>
+      <c r="H55">
+        <v>9.9</v>
+      </c>
+      <c r="I55">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>8830</v>
+      </c>
+      <c r="C56">
+        <v>16</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>46.9</v>
+      </c>
+      <c r="F56">
+        <v>19.3</v>
+      </c>
+      <c r="G56">
+        <v>155</v>
+      </c>
+      <c r="H56">
+        <v>11.4</v>
+      </c>
+      <c r="I56">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>8386</v>
+      </c>
+      <c r="C57">
+        <v>16</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>52</v>
+      </c>
+      <c r="F57">
+        <v>19.5</v>
+      </c>
+      <c r="G57">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="H57">
+        <v>14.6</v>
+      </c>
+      <c r="I57">
+        <v>1485</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Econometrics/data/final data.xlsx
+++ b/Econometrics/data/final data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wkdrn\OneDrive\문서\R-Quant\Econometrics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CA3BBD-9AED-40FD-9209-A0EB204AD57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222D735F-EA92-406F-9BC7-223149C049A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="900" windowWidth="19665" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18135" yWindow="960" windowWidth="19665" windowHeight="19260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="code_0" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="63">
   <si>
     <t>obs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,12 +243,30 @@
     <t>https://kosis.kr/statHtml/statHtml.do?orgId=118&amp;tblId=DT_118N_PAYM32&amp;conn_path=I3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>◇ 근속년수: 근로자가 현 사업체에 입사한 날로부터 조사대상 기준일까지 근무한 기간을 말하며, 다음 기준이 적용됨</t>
+  </si>
+  <si>
+    <t>° 수습 및 견습기간 등은 근속년수에 포함</t>
+  </si>
+  <si>
+    <t>° 휴직기간은 근속년수에 제외됨</t>
+  </si>
+  <si>
+    <t>° 해고 또는 퇴직 후 일정기간을 경과하여 동일기업체에 재고용된 경우에는 이전에 고용되었던 기간은 근속년수에 제외</t>
+  </si>
+  <si>
+    <t>° 실질적인 근무형태가 변경되지 않은 기업의 명의변경· 분할 · 합병 등인 경우 이 근무기간도 근속년수에 포함</t>
+  </si>
+  <si>
+    <t>° 근속기간 중 고용형태가 정규직에서 비정규직, 또는 비정규직에서 정규직으로 전환된 경우에는 전환 이전의 고용형태로 근무한 기간은 제외됨</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +298,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -308,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -321,6 +345,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -604,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5609,10 +5634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FADABD-80AF-47F5-90F4-008A8E8C141E}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5944,31 +5969,54 @@
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12660,8 +12708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47999C9-7FF8-4FAB-8B79-F88BE8A718A2}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Econometrics/data/final data.xlsx
+++ b/Econometrics/data/final data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wkdrn\OneDrive\문서\R-Quant\Econometrics\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hong/Desktop/github/Econometrics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222D735F-EA92-406F-9BC7-223149C049A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF3E213-E05D-3446-96B3-00A3C679630F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18135" yWindow="960" windowWidth="19665" windowHeight="19260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9140" yWindow="500" windowWidth="19660" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="code_0" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="64">
   <si>
     <t>obs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,12 +261,16 @@
   <si>
     <t>° 근속기간 중 고용형태가 정규직에서 비정규직, 또는 비정규직에서 정규직으로 전환된 경우에는 전환 이전의 고용형태로 근무한 기간은 제외됨</t>
   </si>
+  <si>
+    <t>wage_month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -346,6 +350,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -627,15 +632,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,8 +668,11 @@
       <c r="I1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -692,8 +700,11 @@
       <c r="I2">
         <v>3562</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="7">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -721,8 +732,11 @@
       <c r="I3">
         <v>5571</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="7">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -750,8 +764,11 @@
       <c r="I4">
         <v>5326</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="7">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -779,8 +796,11 @@
       <c r="I5">
         <v>5044</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="7">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -808,8 +828,11 @@
       <c r="I6">
         <v>4338</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="7">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -837,8 +860,11 @@
       <c r="I7">
         <v>7640</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="7">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -866,8 +892,11 @@
       <c r="I8">
         <v>14405</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="7">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -895,8 +924,11 @@
       <c r="I9">
         <v>1174</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="7">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -924,8 +956,11 @@
       <c r="I10">
         <v>1177</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="7">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -953,8 +988,11 @@
       <c r="I11">
         <v>1474</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="7">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
@@ -982,8 +1020,11 @@
       <c r="I12">
         <v>1847</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="7">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1011,8 +1052,11 @@
       <c r="I13">
         <v>1676</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="7">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1040,8 +1084,11 @@
       <c r="I14">
         <v>4713</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="7">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1069,8 +1116,11 @@
       <c r="I15">
         <v>13959</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1098,8 +1148,11 @@
       <c r="I16">
         <v>119939</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="7">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1127,8 +1180,11 @@
       <c r="I17">
         <v>188334</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="7">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1156,8 +1212,11 @@
       <c r="I18">
         <v>193277</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="7">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1185,8 +1244,11 @@
       <c r="I19">
         <v>255110</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="7">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1214,8 +1276,11 @@
       <c r="I20">
         <v>263607</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="7">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1243,8 +1308,11 @@
       <c r="I21">
         <v>333939</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="7">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1272,8 +1340,11 @@
       <c r="I22">
         <v>354608</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="7">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1301,8 +1372,11 @@
       <c r="I23">
         <v>94850</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="7">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1330,8 +1404,11 @@
       <c r="I24">
         <v>94298</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="7">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1359,8 +1436,11 @@
       <c r="I25">
         <v>87687</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="7">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1388,8 +1468,11 @@
       <c r="I26">
         <v>118596</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="7">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1417,8 +1500,11 @@
       <c r="I27">
         <v>165553</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="7">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1446,8 +1532,11 @@
       <c r="I28">
         <v>271894</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="7">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1475,8 +1564,11 @@
       <c r="I29">
         <v>307982</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="7">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1504,8 +1596,11 @@
       <c r="I30">
         <v>36196</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="7">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1533,8 +1628,11 @@
       <c r="I31">
         <v>132975</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="7">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1562,8 +1660,11 @@
       <c r="I32">
         <v>140278</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="7">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1591,8 +1692,11 @@
       <c r="I33">
         <v>198848</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="7">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1620,8 +1724,11 @@
       <c r="I34">
         <v>152687</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="7">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1649,8 +1756,11 @@
       <c r="I35">
         <v>135896</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="7">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1678,8 +1788,11 @@
       <c r="I36">
         <v>84600</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="7">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1707,8 +1820,11 @@
       <c r="I37">
         <v>92558</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="7">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1736,8 +1852,11 @@
       <c r="I38">
         <v>149949</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="7">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1765,8 +1884,11 @@
       <c r="I39">
         <v>109510</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="7">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1794,8 +1916,11 @@
       <c r="I40">
         <v>125518</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="7">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1823,8 +1948,11 @@
       <c r="I41">
         <v>116173</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="7">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1852,8 +1980,11 @@
       <c r="I42">
         <v>97848</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="7">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1881,8 +2012,11 @@
       <c r="I43">
         <v>63014</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="7">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1910,8 +2044,11 @@
       <c r="I44">
         <v>24556</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="7">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1939,8 +2076,11 @@
       <c r="I45">
         <v>363173</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="7">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1968,8 +2108,11 @@
       <c r="I46">
         <v>506811</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="7">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1997,8 +2140,11 @@
       <c r="I47">
         <v>579232</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="7">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2026,8 +2172,11 @@
       <c r="I48">
         <v>483266</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="7">
+        <v>4743</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2055,8 +2204,11 @@
       <c r="I49">
         <v>440336</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="7">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2084,8 +2236,11 @@
       <c r="I50">
         <v>318877</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="7">
+        <v>5732</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2113,8 +2268,11 @@
       <c r="I51">
         <v>98425</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="7">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2142,8 +2300,11 @@
       <c r="I52">
         <v>380934</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="7">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2171,8 +2332,11 @@
       <c r="I53">
         <v>319895</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="7">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2200,8 +2364,11 @@
       <c r="I54">
         <v>259378</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="7">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2229,8 +2396,11 @@
       <c r="I55">
         <v>197388</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="7">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2258,8 +2428,11 @@
       <c r="I56">
         <v>160730</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="7">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2286,6 +2459,9 @@
       </c>
       <c r="I57">
         <v>99675</v>
+      </c>
+      <c r="J57" s="7">
+        <v>3566</v>
       </c>
     </row>
   </sheetData>
@@ -2302,9 +2478,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2333,7 +2509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2362,7 +2538,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2391,7 +2567,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2420,7 +2596,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2449,7 +2625,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2478,7 +2654,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2507,7 +2683,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2536,7 +2712,7 @@
         <v>8490</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2565,7 +2741,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2594,7 +2770,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2623,7 +2799,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2652,7 +2828,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2681,7 +2857,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2710,7 +2886,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2739,7 +2915,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2768,7 +2944,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2797,7 +2973,7 @@
         <v>75075</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2826,7 +3002,7 @@
         <v>87333</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2855,7 +3031,7 @@
         <v>115113</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2884,7 +3060,7 @@
         <v>115797</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2913,7 +3089,7 @@
         <v>150374</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2942,7 +3118,7 @@
         <v>171049</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2971,7 +3147,7 @@
         <v>10143</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3000,7 +3176,7 @@
         <v>18714</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3029,7 +3205,7 @@
         <v>18780</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3058,7 +3234,7 @@
         <v>19058</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3087,7 +3263,7 @@
         <v>25030</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3116,7 +3292,7 @@
         <v>46040</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3145,7 +3321,7 @@
         <v>53568</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3174,7 +3350,7 @@
         <v>7718</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3203,7 +3379,7 @@
         <v>30442</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3232,7 +3408,7 @@
         <v>37630</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3261,7 +3437,7 @@
         <v>48772</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3290,7 +3466,7 @@
         <v>31938</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3319,7 +3495,7 @@
         <v>27862</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3348,7 +3524,7 @@
         <v>19909</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3377,7 +3553,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3406,7 +3582,7 @@
         <v>4077</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3435,7 +3611,7 @@
         <v>5182</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3464,7 +3640,7 @@
         <v>3653</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3493,7 +3669,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3522,7 +3698,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3551,7 +3727,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3580,7 +3756,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3609,7 +3785,7 @@
         <v>23211</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3638,7 +3814,7 @@
         <v>30232</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3667,7 +3843,7 @@
         <v>31919</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3696,7 +3872,7 @@
         <v>24245</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3725,7 +3901,7 @@
         <v>20202</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3754,7 +3930,7 @@
         <v>16588</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3783,7 +3959,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3812,7 +3988,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3841,7 +4017,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3870,7 +4046,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3899,7 +4075,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3928,7 +4104,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3971,9 +4147,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4002,7 +4178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4031,7 +4207,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4060,7 +4236,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4089,7 +4265,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4118,7 +4294,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4147,7 +4323,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4176,7 +4352,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4205,7 +4381,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4234,7 +4410,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4263,7 +4439,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4292,7 +4468,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4321,7 +4497,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4350,7 +4526,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4379,7 +4555,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4408,7 +4584,7 @@
         <v>5735</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4437,7 +4613,7 @@
         <v>19643</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4466,7 +4642,7 @@
         <v>26308</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4495,7 +4671,7 @@
         <v>25481</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4524,7 +4700,7 @@
         <v>28094</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4553,7 +4729,7 @@
         <v>25150</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4582,7 +4758,7 @@
         <v>28299</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4611,7 +4787,7 @@
         <v>31720</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4640,7 +4816,7 @@
         <v>7349</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4669,7 +4845,7 @@
         <v>7661</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4698,7 +4874,7 @@
         <v>9115</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4727,7 +4903,7 @@
         <v>14350</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4756,7 +4932,7 @@
         <v>24738</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4785,7 +4961,7 @@
         <v>49860</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4814,7 +4990,7 @@
         <v>73828</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4843,7 +5019,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4872,7 +5048,7 @@
         <v>6520</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4901,7 +5077,7 @@
         <v>6689</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4930,7 +5106,7 @@
         <v>8602</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4959,7 +5135,7 @@
         <v>5335</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4988,7 +5164,7 @@
         <v>4876</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5017,7 +5193,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5046,7 +5222,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5075,7 +5251,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5104,7 +5280,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5133,7 +5309,7 @@
         <v>5087</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5162,7 +5338,7 @@
         <v>4641</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5191,7 +5367,7 @@
         <v>5826</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5220,7 +5396,7 @@
         <v>6212</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5249,7 +5425,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5278,7 +5454,7 @@
         <v>5203</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5307,7 +5483,7 @@
         <v>6132</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5336,7 +5512,7 @@
         <v>5692</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5365,7 +5541,7 @@
         <v>5149</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5394,7 +5570,7 @@
         <v>3928</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5423,7 +5599,7 @@
         <v>3673</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5452,7 +5628,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5481,7 +5657,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5510,7 +5686,7 @@
         <v>3674</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5539,7 +5715,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5568,7 +5744,7 @@
         <v>3162</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5597,7 +5773,7 @@
         <v>4656</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5636,31 +5812,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FADABD-80AF-47F5-90F4-008A8E8C141E}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="26.375" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5668,7 +5844,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -5676,7 +5852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -5684,7 +5860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -5692,7 +5868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -5700,7 +5876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5708,7 +5884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -5716,7 +5892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -5725,7 +5901,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -5734,16 +5910,16 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -5752,7 +5928,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -5761,7 +5937,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -5770,7 +5946,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -5779,7 +5955,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -5788,7 +5964,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -5797,7 +5973,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -5806,7 +5982,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -5815,7 +5991,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5824,7 +6000,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -5832,22 +6008,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -5856,7 +6032,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
@@ -5865,7 +6041,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
@@ -5874,7 +6050,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -5883,7 +6059,7 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
@@ -5892,7 +6068,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
@@ -5901,7 +6077,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -5910,14 +6086,14 @@
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
@@ -5926,7 +6102,7 @@
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
@@ -5935,7 +6111,7 @@
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>26</v>
       </c>
@@ -5945,7 +6121,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>26</v>
       </c>
@@ -5955,7 +6131,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
@@ -5965,55 +6141,55 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" s="6" t="s">
         <v>62</v>
       </c>
@@ -6036,9 +6212,9 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6067,7 +6243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6096,7 +6272,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6125,7 +6301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6154,7 +6330,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6183,7 +6359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6212,7 +6388,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6241,7 +6417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6270,7 +6446,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6299,7 +6475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6328,7 +6504,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6357,7 +6533,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6386,7 +6562,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6415,7 +6591,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6444,7 +6620,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6473,7 +6649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6502,7 +6678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6531,7 +6707,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6560,7 +6736,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6589,7 +6765,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6618,7 +6794,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6647,7 +6823,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6676,7 +6852,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6705,7 +6881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6734,7 +6910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6763,7 +6939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6792,7 +6968,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6821,7 +6997,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6850,7 +7026,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6879,7 +7055,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6908,7 +7084,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6937,7 +7113,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6966,7 +7142,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6995,7 +7171,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7024,7 +7200,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7053,7 +7229,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7082,7 +7258,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7111,7 +7287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7140,7 +7316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7169,7 +7345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7198,7 +7374,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7227,7 +7403,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7256,7 +7432,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7285,7 +7461,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7314,7 +7490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7343,7 +7519,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7372,7 +7548,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7401,7 +7577,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7430,7 +7606,7 @@
         <v>7994</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7459,7 +7635,7 @@
         <v>18271</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7488,7 +7664,7 @@
         <v>24496</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7517,7 +7693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7546,7 +7722,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7575,7 +7751,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7604,7 +7780,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7633,7 +7809,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7662,7 +7838,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7705,9 +7881,9 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7736,7 +7912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7765,7 +7941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7794,7 +7970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7823,7 +7999,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7852,7 +8028,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7881,7 +8057,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7910,7 +8086,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7939,7 +8115,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7968,7 +8144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7997,7 +8173,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8026,7 +8202,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8055,7 +8231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8084,7 +8260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8113,7 +8289,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8142,7 +8318,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8171,7 +8347,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8200,7 +8376,7 @@
         <v>12781</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8229,7 +8405,7 @@
         <v>11067</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8258,7 +8434,7 @@
         <v>16195</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8287,7 +8463,7 @@
         <v>15043</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8316,7 +8492,7 @@
         <v>19184</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8345,7 +8521,7 @@
         <v>18564</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8374,7 +8550,7 @@
         <v>10294</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8403,7 +8579,7 @@
         <v>12463</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8432,7 +8608,7 @@
         <v>10038</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8461,7 +8637,7 @@
         <v>14295</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8490,7 +8666,7 @@
         <v>18778</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8519,7 +8695,7 @@
         <v>27661</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8548,7 +8724,7 @@
         <v>23559</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8577,7 +8753,7 @@
         <v>9470</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8606,7 +8782,7 @@
         <v>34189</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8635,7 +8811,7 @@
         <v>31700</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8664,7 +8840,7 @@
         <v>43961</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8693,7 +8869,7 @@
         <v>34750</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8722,7 +8898,7 @@
         <v>31949</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8751,7 +8927,7 @@
         <v>16746</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8780,7 +8956,7 @@
         <v>46914</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8809,7 +8985,7 @@
         <v>67831</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8838,7 +9014,7 @@
         <v>44579</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8867,7 +9043,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8896,7 +9072,7 @@
         <v>46825</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8925,7 +9101,7 @@
         <v>40082</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8954,7 +9130,7 @@
         <v>25230</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8983,7 +9159,7 @@
         <v>10540</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9012,7 +9188,7 @@
         <v>175494</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9041,7 +9217,7 @@
         <v>230325</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9070,7 +9246,7 @@
         <v>266400</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9099,7 +9275,7 @@
         <v>210613</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9128,7 +9304,7 @@
         <v>182667</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9157,7 +9333,7 @@
         <v>112274</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>50</v>
       </c>
@@ -9186,7 +9362,7 @@
         <v>56364</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>51</v>
       </c>
@@ -9215,7 +9391,7 @@
         <v>187914</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>52</v>
       </c>
@@ -9244,7 +9420,7 @@
         <v>140839</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>53</v>
       </c>
@@ -9273,7 +9449,7 @@
         <v>117489</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
@@ -9302,7 +9478,7 @@
         <v>92256</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9331,7 +9507,7 @@
         <v>75659</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>56</v>
       </c>
@@ -9374,9 +9550,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9405,7 +9581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9434,7 +9610,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9463,7 +9639,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9492,7 +9668,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9521,7 +9697,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9550,7 +9726,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9579,7 +9755,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9608,7 +9784,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9637,7 +9813,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9666,7 +9842,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9695,7 +9871,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9724,7 +9900,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9753,7 +9929,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9782,7 +9958,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9811,7 +9987,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9840,7 +10016,7 @@
         <v>13741</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9869,7 +10045,7 @@
         <v>22925</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9898,7 +10074,7 @@
         <v>26121</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9927,7 +10103,7 @@
         <v>37921</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9956,7 +10132,7 @@
         <v>40405</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9985,7 +10161,7 @@
         <v>52945</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10014,7 +10190,7 @@
         <v>54985</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10043,7 +10219,7 @@
         <v>37379</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10072,7 +10248,7 @@
         <v>30045</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10101,7 +10277,7 @@
         <v>29354</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10130,7 +10306,7 @@
         <v>46104</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10159,7 +10335,7 @@
         <v>60182</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10188,7 +10364,7 @@
         <v>72234</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10217,7 +10393,7 @@
         <v>48520</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10246,7 +10422,7 @@
         <v>5214</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10275,7 +10451,7 @@
         <v>25471</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10304,7 +10480,7 @@
         <v>31222</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10333,7 +10509,7 @@
         <v>47539</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10362,7 +10538,7 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10391,7 +10567,7 @@
         <v>38688</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10420,7 +10596,7 @@
         <v>25383</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10449,7 +10625,7 @@
         <v>27113</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -10478,7 +10654,7 @@
         <v>56084</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -10507,7 +10683,7 @@
         <v>47008</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10536,7 +10712,7 @@
         <v>61628</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10565,7 +10741,7 @@
         <v>51519</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10594,7 +10770,7 @@
         <v>38430</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10623,7 +10799,7 @@
         <v>20465</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
@@ -10652,7 +10828,7 @@
         <v>5623</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
@@ -10681,7 +10857,7 @@
         <v>106902</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
@@ -10710,7 +10886,7 @@
         <v>173242</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
@@ -10739,7 +10915,7 @@
         <v>201150</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
@@ -10768,7 +10944,7 @@
         <v>176828</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10797,7 +10973,7 @@
         <v>169816</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
@@ -10826,7 +11002,7 @@
         <v>131352</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>50</v>
       </c>
@@ -10855,7 +11031,7 @@
         <v>32087</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10884,7 +11060,7 @@
         <v>160648</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10913,7 +11089,7 @@
         <v>152261</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>53</v>
       </c>
@@ -10942,7 +11118,7 @@
         <v>123261</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
@@ -10971,7 +11147,7 @@
         <v>86967</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>55</v>
       </c>
@@ -11000,7 +11176,7 @@
         <v>64034</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>56</v>
       </c>
@@ -11043,9 +11219,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11074,7 +11250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11103,7 +11279,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11132,7 +11308,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11161,7 +11337,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11190,7 +11366,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11219,7 +11395,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11248,7 +11424,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11277,7 +11453,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11306,7 +11482,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11335,7 +11511,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11364,7 +11540,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11393,7 +11569,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11422,7 +11598,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11451,7 +11627,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11480,7 +11656,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11509,7 +11685,7 @@
         <v>10087</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11538,7 +11714,7 @@
         <v>12832</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11567,7 +11743,7 @@
         <v>7943</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11596,7 +11772,7 @@
         <v>9095</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11625,7 +11801,7 @@
         <v>8582</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11654,7 +11830,7 @@
         <v>10373</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11683,7 +11859,7 @@
         <v>7868</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11712,7 +11888,7 @@
         <v>13737</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11741,7 +11917,7 @@
         <v>7931</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11770,7 +11946,7 @@
         <v>4853</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11799,7 +11975,7 @@
         <v>7809</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11828,7 +12004,7 @@
         <v>12831</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11857,7 +12033,7 @@
         <v>32297</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11886,7 +12062,7 @@
         <v>58503</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11915,7 +12091,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11944,7 +12120,7 @@
         <v>8119</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11973,7 +12149,7 @@
         <v>5421</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -12002,7 +12178,7 @@
         <v>6658</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -12031,7 +12207,7 @@
         <v>4314</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -12060,7 +12236,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12089,7 +12265,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -12118,7 +12294,7 @@
         <v>9928</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -12147,7 +12323,7 @@
         <v>10040</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12176,7 +12352,7 @@
         <v>3809</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12205,7 +12381,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12234,7 +12410,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12263,7 +12439,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12292,7 +12468,7 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12321,7 +12497,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
@@ -12350,7 +12526,7 @@
         <v>8274</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
@@ -12379,7 +12555,7 @@
         <v>7135</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
@@ -12408,7 +12584,7 @@
         <v>6195</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
@@ -12437,7 +12613,7 @@
         <v>3822</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>48</v>
       </c>
@@ -12466,7 +12642,7 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12495,7 +12671,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12524,7 +12700,7 @@
         <v>3929</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12553,7 +12729,7 @@
         <v>9323</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12582,7 +12758,7 @@
         <v>5775</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12611,7 +12787,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
@@ -12640,7 +12816,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>55</v>
       </c>
@@ -12669,7 +12845,7 @@
         <v>3586</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>56</v>
       </c>
@@ -12712,9 +12888,9 @@
       <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12743,7 +12919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12772,7 +12948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12801,7 +12977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12830,7 +13006,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12859,7 +13035,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12888,7 +13064,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12917,7 +13093,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12946,7 +13122,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12975,7 +13151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13004,7 +13180,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13033,7 +13209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13062,7 +13238,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13091,7 +13267,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13120,7 +13296,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13149,7 +13325,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13178,7 +13354,7 @@
         <v>9639</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13207,7 +13383,7 @@
         <v>14880</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13236,7 +13412,7 @@
         <v>13619</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13265,7 +13441,7 @@
         <v>13322</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -13294,7 +13470,7 @@
         <v>14146</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13323,7 +13499,7 @@
         <v>16651</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -13352,7 +13528,7 @@
         <v>11816</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -13381,7 +13557,7 @@
         <v>13837</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -13410,7 +13586,7 @@
         <v>15689</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -13439,7 +13615,7 @@
         <v>13703</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -13468,7 +13644,7 @@
         <v>14716</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -13497,7 +13673,7 @@
         <v>20361</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -13526,7 +13702,7 @@
         <v>36145</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -13555,7 +13731,7 @@
         <v>36957</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -13584,7 +13760,7 @@
         <v>3561</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -13613,7 +13789,7 @@
         <v>9071</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -13642,7 +13818,7 @@
         <v>10319</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -13671,7 +13847,7 @@
         <v>14403</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -13700,7 +13876,7 @@
         <v>11587</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -13729,7 +13905,7 @@
         <v>8161</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -13758,7 +13934,7 @@
         <v>4952</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -13787,7 +13963,7 @@
         <v>4277</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -13816,7 +13992,7 @@
         <v>8283</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -13845,7 +14021,7 @@
         <v>5466</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -13874,7 +14050,7 @@
         <v>5498</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -13903,7 +14079,7 @@
         <v>6613</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
@@ -13932,7 +14108,7 @@
         <v>6402</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
@@ -13961,7 +14137,7 @@
         <v>3994</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
@@ -13990,7 +14166,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
@@ -14019,7 +14195,7 @@
         <v>26406</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
@@ -14048,7 +14224,7 @@
         <v>38396</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
@@ -14077,7 +14253,7 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
@@ -14106,7 +14282,7 @@
         <v>35630</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>48</v>
       </c>
@@ -14135,7 +14311,7 @@
         <v>25773</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
@@ -14164,7 +14340,7 @@
         <v>16735</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>50</v>
       </c>
@@ -14193,7 +14369,7 @@
         <v>3664</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>51</v>
       </c>
@@ -14222,7 +14398,7 @@
         <v>16757</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>52</v>
       </c>
@@ -14251,7 +14427,7 @@
         <v>13519</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>53</v>
       </c>
@@ -14280,7 +14456,7 @@
         <v>8745</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
@@ -14309,7 +14485,7 @@
         <v>7885</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>55</v>
       </c>
@@ -14338,7 +14514,7 @@
         <v>8467</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>56</v>
       </c>
@@ -14381,9 +14557,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14412,7 +14588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14441,7 +14617,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14470,7 +14646,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14499,7 +14675,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14528,7 +14704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14557,7 +14733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14586,7 +14762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14615,7 +14791,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -14644,7 +14820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -14673,7 +14849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -14702,7 +14878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14731,7 +14907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -14760,7 +14936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -14789,7 +14965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -14818,7 +14994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -14847,7 +15023,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -14876,7 +15052,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -14905,7 +15081,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -14934,7 +15110,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -14963,7 +15139,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -14992,7 +15168,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -15021,7 +15197,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -15050,7 +15226,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -15079,7 +15255,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15108,7 +15284,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -15137,7 +15313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -15166,7 +15342,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -15195,7 +15371,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -15224,7 +15400,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -15253,7 +15429,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -15282,7 +15458,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -15311,7 +15487,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -15340,7 +15516,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -15369,7 +15545,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -15398,7 +15574,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -15427,7 +15603,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -15456,7 +15632,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -15485,7 +15661,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -15514,7 +15690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -15543,7 +15719,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -15572,7 +15748,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
@@ -15601,7 +15777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
@@ -15630,7 +15806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
@@ -15659,7 +15835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
@@ -15688,7 +15864,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
@@ -15717,7 +15893,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
@@ -15746,7 +15922,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
@@ -15775,7 +15951,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>48</v>
       </c>
@@ -15804,7 +15980,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
@@ -15833,7 +16009,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>50</v>
       </c>
@@ -15862,7 +16038,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>51</v>
       </c>
@@ -15891,7 +16067,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>52</v>
       </c>
@@ -15920,7 +16096,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>53</v>
       </c>
@@ -15949,7 +16125,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
@@ -15978,7 +16154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>55</v>
       </c>
@@ -16007,7 +16183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>56</v>
       </c>
@@ -16050,9 +16226,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16081,7 +16257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16110,7 +16286,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16139,7 +16315,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16168,7 +16344,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16197,7 +16373,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16226,7 +16402,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16255,7 +16431,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16284,7 +16460,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16313,7 +16489,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16342,7 +16518,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16371,7 +16547,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16400,7 +16576,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -16429,7 +16605,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -16458,7 +16634,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -16487,7 +16663,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -16516,7 +16692,7 @@
         <v>12552</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -16545,7 +16721,7 @@
         <v>22852</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -16574,7 +16750,7 @@
         <v>21278</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -16603,7 +16779,7 @@
         <v>34113</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -16632,7 +16808,7 @@
         <v>42852</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -16661,7 +16837,7 @@
         <v>52678</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -16690,7 +16866,7 @@
         <v>54923</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -16719,7 +16895,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -16748,7 +16924,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -16777,7 +16953,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -16806,7 +16982,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -16835,7 +17011,7 @@
         <v>3291</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -16864,7 +17040,7 @@
         <v>7270</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -16893,7 +17069,7 @@
         <v>12506</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -16922,7 +17098,7 @@
         <v>4893</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -16951,7 +17127,7 @@
         <v>18818</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -16980,7 +17156,7 @@
         <v>16832</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17009,7 +17185,7 @@
         <v>27693</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -17038,7 +17214,7 @@
         <v>20457</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -17067,7 +17243,7 @@
         <v>18464</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -17096,7 +17272,7 @@
         <v>9760</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -17125,7 +17301,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -17154,7 +17330,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -17183,7 +17359,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -17212,7 +17388,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -17241,7 +17417,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
@@ -17270,7 +17446,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
@@ -17299,7 +17475,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
@@ -17328,7 +17504,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
@@ -17357,7 +17533,7 @@
         <v>16639</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
@@ -17386,7 +17562,7 @@
         <v>19151</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
@@ -17415,7 +17591,7 @@
         <v>23405</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
@@ -17444,7 +17620,7 @@
         <v>18392</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>48</v>
       </c>
@@ -17473,7 +17649,7 @@
         <v>15976</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
@@ -17502,7 +17678,7 @@
         <v>11072</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>50</v>
       </c>
@@ -17531,7 +17707,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>51</v>
       </c>
@@ -17560,7 +17736,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>52</v>
       </c>
@@ -17589,7 +17765,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>53</v>
       </c>
@@ -17618,7 +17794,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
@@ -17647,7 +17823,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>55</v>
       </c>
@@ -17676,7 +17852,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>56</v>
       </c>

--- a/Econometrics/data/final data.xlsx
+++ b/Econometrics/data/final data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hong/Desktop/github/Econometrics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF3E213-E05D-3446-96B3-00A3C679630F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202A4D0C-05A7-F94F-9A07-6C93FD83049A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9140" yWindow="500" windowWidth="19660" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="67">
   <si>
     <t>obs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t>wage_month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edu_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edu_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edu_u</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,15 +644,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -671,8 +683,17 @@
       <c r="J1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -703,8 +724,17 @@
       <c r="J2" s="7">
         <v>2430</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -735,8 +765,17 @@
       <c r="J3" s="7">
         <v>2402</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -767,8 +806,17 @@
       <c r="J4" s="7">
         <v>2496</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -799,8 +847,17 @@
       <c r="J5" s="7">
         <v>2772</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -831,8 +888,17 @@
       <c r="J6" s="7">
         <v>2781</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
@@ -863,8 +929,17 @@
       <c r="J7" s="7">
         <v>3265</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
@@ -895,8 +970,17 @@
       <c r="J8" s="7">
         <v>3375</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
@@ -927,8 +1011,17 @@
       <c r="J9" s="7">
         <v>1997</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
@@ -959,8 +1052,17 @@
       <c r="J10" s="7">
         <v>2008</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
@@ -991,8 +1093,17 @@
       <c r="J11" s="7">
         <v>2110</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1023,8 +1134,17 @@
       <c r="J12" s="7">
         <v>2055</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1055,8 +1175,17 @@
       <c r="J13" s="7">
         <v>1788</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1087,8 +1216,17 @@
       <c r="J14" s="7">
         <v>2012</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1119,8 +1257,17 @@
       <c r="J15" s="7">
         <v>2025</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1151,8 +1298,17 @@
       <c r="J16" s="7">
         <v>2172</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1183,8 +1339,17 @@
       <c r="J17" s="7">
         <v>2454</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1215,8 +1380,17 @@
       <c r="J18" s="7">
         <v>2700</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1247,8 +1421,17 @@
       <c r="J19" s="7">
         <v>3005</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1279,8 +1462,17 @@
       <c r="J20" s="7">
         <v>3225</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1311,8 +1503,17 @@
       <c r="J21" s="7">
         <v>3459</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1343,8 +1544,17 @@
       <c r="J22" s="7">
         <v>3496</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1375,8 +1585,17 @@
       <c r="J23" s="7">
         <v>1980</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1407,8 +1626,17 @@
       <c r="J24" s="7">
         <v>2282</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1439,8 +1667,17 @@
       <c r="J25" s="7">
         <v>2418</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1471,8 +1708,17 @@
       <c r="J26" s="7">
         <v>2385</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1503,8 +1749,17 @@
       <c r="J27" s="7">
         <v>2381</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1535,8 +1790,17 @@
       <c r="J28" s="7">
         <v>2284</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1567,8 +1831,17 @@
       <c r="J29" s="7">
         <v>2149</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1599,8 +1872,17 @@
       <c r="J30" s="7">
         <v>2292</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1631,8 +1913,17 @@
       <c r="J31" s="7">
         <v>2578</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1663,8 +1954,17 @@
       <c r="J32" s="7">
         <v>2933</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1695,8 +1995,17 @@
       <c r="J33" s="7">
         <v>3365</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1727,8 +2036,17 @@
       <c r="J34" s="7">
         <v>3659</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1759,8 +2077,17 @@
       <c r="J35" s="7">
         <v>3968</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1791,8 +2118,17 @@
       <c r="J36" s="7">
         <v>4108</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1823,8 +2159,17 @@
       <c r="J37" s="7">
         <v>2028</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1855,8 +2200,17 @@
       <c r="J38" s="7">
         <v>2306</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1887,8 +2241,17 @@
       <c r="J39" s="7">
         <v>2530</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1919,8 +2282,17 @@
       <c r="J40" s="7">
         <v>2624</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1951,8 +2323,17 @@
       <c r="J41" s="7">
         <v>2625</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1983,8 +2364,17 @@
       <c r="J42" s="7">
         <v>2520</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2015,8 +2405,17 @@
       <c r="J43" s="7">
         <v>2479</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2047,8 +2446,17 @@
       <c r="J44" s="7">
         <v>2347</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2079,8 +2487,17 @@
       <c r="J45" s="7">
         <v>2820</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2111,8 +2528,17 @@
       <c r="J46" s="7">
         <v>3332</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2143,8 +2569,17 @@
       <c r="J47" s="7">
         <v>4068</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2175,8 +2610,17 @@
       <c r="J48" s="7">
         <v>4743</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2207,8 +2651,17 @@
       <c r="J49" s="7">
         <v>5286</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2239,8 +2692,17 @@
       <c r="J50" s="7">
         <v>5732</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2271,8 +2733,17 @@
       <c r="J51" s="7">
         <v>2300</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2303,8 +2774,17 @@
       <c r="J52" s="7">
         <v>2612</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2335,8 +2815,17 @@
       <c r="J53" s="7">
         <v>3061</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2367,8 +2856,17 @@
       <c r="J54" s="7">
         <v>3436</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2399,8 +2897,17 @@
       <c r="J55" s="7">
         <v>3517</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2431,8 +2938,17 @@
       <c r="J56" s="7">
         <v>3486</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2462,6 +2978,15 @@
       </c>
       <c r="J57" s="7">
         <v>3566</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
